--- a/Diverses/GE_Coronavirus_texte.xlsx
+++ b/Diverses/GE_Coronavirus_texte.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="274">
   <si>
     <t>Gemeinde_Nr</t>
   </si>
@@ -704,7 +704,7 @@
     <t>Les habitants d'Aire-la-Ville acceptent la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus avec 60,5 pour cent de oui. Aire-la-Ville a approuvé le texte, tout comme son canton.</t>
   </si>
   <si>
-    <t>Les habitants d'Anières rejettent la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus avec 98,7 pour cent de non. C'est à Anières que le refus le plus net de cet objet a été enregistré dans le canton.</t>
+    <t>Les habitants d'Anières rejettent la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus avec 98,7 pour cent de non. C'est à Anières que le refus le plus net de cet objet a été enregistré.</t>
   </si>
   <si>
     <t>Les habitants d'Avully approuvent la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus avec 53 pour cent de oui. Avully a approuvé le texte, tout comme son canton.</t>
@@ -818,7 +818,7 @@
     <t>Les habitants de Soral s'opposent à la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus avec 82,3 pour cent de non. Soral a rejeté le texte, contrairement à son canton.</t>
   </si>
   <si>
-    <t>Les habitants de Thônex approuvent la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus avec 98 pour cent de oui. C'est à Thônex que la forte acceptation de cet objet a été enregistrée dans le canton.</t>
+    <t>Les habitants de Thônex approuvent la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus avec 98 pour cent de oui. C'est à Thônex que la plus forte acceptation de cet objet a été enregistrée.</t>
   </si>
   <si>
     <t>A Troinex, les habitants disent non à 52,8 pour cent à la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus. Troinex a rejeté le texte, contrairement à son canton.</t>
@@ -834,9 +834,6 @@
   </si>
   <si>
     <t>Les habitants de Veyrier s'opposent à la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus avec 85,5 pour cent de non. Veyrier a rejeté le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>la loi sur l'indemnisation pour perte de revenus liée aux mesures de lutte contre le coronavirus. NA</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1096,7 @@
         <v>229</v>
       </c>
       <c r="AI2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="AJ2" t="n">
         <v>60.51529381901256</v>
@@ -2089,7 +2086,7 @@
         <v>238</v>
       </c>
       <c r="AI11" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="AJ11" t="n">
         <v>52.07685561667863</v>
@@ -2749,7 +2746,7 @@
         <v>244</v>
       </c>
       <c r="AI17" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="AJ17" t="n">
         <v>51.29286631212177</v>
@@ -3299,7 +3296,7 @@
         <v>249</v>
       </c>
       <c r="AI22" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="AJ22" t="n">
         <v>51.91766503176007</v>
@@ -3629,7 +3626,7 @@
         <v>252</v>
       </c>
       <c r="AI25" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="AJ25" t="n">
         <v>76.93480101608806</v>
@@ -5059,7 +5056,7 @@
         <v>265</v>
       </c>
       <c r="AI38" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="AJ38" t="n">
         <v>78.60289490245438</v>
